--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7b-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7b-Lrp5.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H2">
         <v>0.168584</v>
       </c>
       <c r="I2">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J2">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.779843</v>
+        <v>10.250695</v>
       </c>
       <c r="N2">
-        <v>50.33952900000001</v>
+        <v>30.752085</v>
       </c>
       <c r="O2">
-        <v>0.3792236656946227</v>
+        <v>0.2501330709220828</v>
       </c>
       <c r="P2">
-        <v>0.3968949233565789</v>
+        <v>0.259830908271274</v>
       </c>
       <c r="Q2">
-        <v>0.9429376841040001</v>
+        <v>0.5760343886266667</v>
       </c>
       <c r="R2">
-        <v>8.486439156936001</v>
+        <v>5.18430949764</v>
       </c>
       <c r="S2">
-        <v>0.06201797401308076</v>
+        <v>0.01247232550172981</v>
       </c>
       <c r="T2">
-        <v>0.09000241282810327</v>
+        <v>0.01896110319249702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H3">
         <v>0.168584</v>
       </c>
       <c r="I3">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J3">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>30.253893</v>
       </c>
       <c r="O3">
-        <v>0.2279121881532281</v>
+        <v>0.2460808482884365</v>
       </c>
       <c r="P3">
-        <v>0.2385325564622017</v>
+        <v>0.2556215780794031</v>
       </c>
       <c r="Q3">
-        <v>0.5667024775013333</v>
+        <v>0.5667024775013334</v>
       </c>
       <c r="R3">
         <v>5.100322297512</v>
       </c>
       <c r="S3">
-        <v>0.03727260042239421</v>
+        <v>0.01227027049354556</v>
       </c>
       <c r="T3">
-        <v>0.05409115701982956</v>
+        <v>0.01865392825064588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H4">
         <v>0.168584</v>
       </c>
       <c r="I4">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J4">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.926370333333334</v>
+        <v>7.311799000000001</v>
       </c>
       <c r="N4">
-        <v>17.779111</v>
+        <v>21.935397</v>
       </c>
       <c r="O4">
-        <v>0.1339356918935731</v>
+        <v>0.1784193889131434</v>
       </c>
       <c r="P4">
-        <v>0.1401768955306099</v>
+        <v>0.1853368357235283</v>
       </c>
       <c r="Q4">
-        <v>0.3330304054248889</v>
+        <v>0.4108841075386667</v>
       </c>
       <c r="R4">
-        <v>2.997273648824</v>
+        <v>3.697956967848</v>
       </c>
       <c r="S4">
-        <v>0.02190374971473567</v>
+        <v>0.008896483324420687</v>
       </c>
       <c r="T4">
-        <v>0.0317874028566829</v>
+        <v>0.0135249146874233</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H5">
         <v>0.168584</v>
       </c>
       <c r="I5">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J5">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.910247</v>
+        <v>4.588677499999999</v>
       </c>
       <c r="N5">
-        <v>11.820494</v>
+        <v>9.177354999999999</v>
       </c>
       <c r="O5">
-        <v>0.1335713053155888</v>
+        <v>0.1119709438770801</v>
       </c>
       <c r="P5">
-        <v>0.09319701938742614</v>
+        <v>0.07754142475796089</v>
       </c>
       <c r="Q5">
-        <v>0.3321243600826667</v>
+        <v>0.2578592025533333</v>
       </c>
       <c r="R5">
-        <v>1.992746160496</v>
+        <v>1.54715521532</v>
       </c>
       <c r="S5">
-        <v>0.02184415818770703</v>
+        <v>0.005583180399227933</v>
       </c>
       <c r="T5">
-        <v>0.02113394785279214</v>
+        <v>0.005658568360134882</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H6">
         <v>0.168584</v>
       </c>
       <c r="I6">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J6">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.546787999999999</v>
+        <v>8.745164000000001</v>
       </c>
       <c r="N6">
-        <v>16.640364</v>
+        <v>26.235492</v>
       </c>
       <c r="O6">
-        <v>0.1253571489429874</v>
+        <v>0.2133957479992572</v>
       </c>
       <c r="P6">
-        <v>0.1311986052631834</v>
+        <v>0.2216692531678338</v>
       </c>
       <c r="Q6">
-        <v>0.3116999027306666</v>
+        <v>0.4914315759253334</v>
       </c>
       <c r="R6">
-        <v>2.805299124576</v>
+        <v>4.422884183328001</v>
       </c>
       <c r="S6">
-        <v>0.02050082077883971</v>
+        <v>0.01064050115372757</v>
       </c>
       <c r="T6">
-        <v>0.02975142874971888</v>
+        <v>0.01617626483270745</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H7">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I7">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J7">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.779843</v>
+        <v>10.250695</v>
       </c>
       <c r="N7">
-        <v>50.33952900000001</v>
+        <v>30.752085</v>
       </c>
       <c r="O7">
-        <v>0.3792236656946227</v>
+        <v>0.2501330709220828</v>
       </c>
       <c r="P7">
-        <v>0.3968949233565789</v>
+        <v>0.259830908271274</v>
       </c>
       <c r="Q7">
-        <v>4.822879254903</v>
+        <v>10.97636220044</v>
       </c>
       <c r="R7">
-        <v>28.937275529418</v>
+        <v>65.85817320263999</v>
       </c>
       <c r="S7">
-        <v>0.3172056916815419</v>
+        <v>0.237660745420353</v>
       </c>
       <c r="T7">
-        <v>0.3068925105284757</v>
+        <v>0.2408698050787769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H8">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I8">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J8">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>30.253893</v>
       </c>
       <c r="O8">
-        <v>0.2279121881532281</v>
+        <v>0.2460808482884365</v>
       </c>
       <c r="P8">
-        <v>0.2385325564622017</v>
+        <v>0.2556215780794031</v>
       </c>
       <c r="Q8">
-        <v>2.898534726651</v>
+        <v>10.798542197752</v>
       </c>
       <c r="R8">
-        <v>17.391208359906</v>
+        <v>64.79125318651199</v>
       </c>
       <c r="S8">
-        <v>0.1906395877308339</v>
+        <v>0.233810577794891</v>
       </c>
       <c r="T8">
-        <v>0.1844413994423721</v>
+        <v>0.2369676498287572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H9">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I9">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J9">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.926370333333334</v>
+        <v>7.311799000000001</v>
       </c>
       <c r="N9">
-        <v>17.779111</v>
+        <v>21.935397</v>
       </c>
       <c r="O9">
-        <v>0.1339356918935731</v>
+        <v>0.1784193889131434</v>
       </c>
       <c r="P9">
-        <v>0.1401768955306099</v>
+        <v>0.1853368357235283</v>
       </c>
       <c r="Q9">
-        <v>1.703363287577</v>
+        <v>7.829415874808</v>
       </c>
       <c r="R9">
-        <v>10.220179725462</v>
+        <v>46.976495248848</v>
       </c>
       <c r="S9">
-        <v>0.1120319421788374</v>
+        <v>0.1695229055887227</v>
       </c>
       <c r="T9">
-        <v>0.108389492673927</v>
+        <v>0.171811921036105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H10">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I10">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J10">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.910247</v>
+        <v>4.588677499999999</v>
       </c>
       <c r="N10">
-        <v>11.820494</v>
+        <v>9.177354999999999</v>
       </c>
       <c r="O10">
-        <v>0.1335713053155888</v>
+        <v>0.1119709438770801</v>
       </c>
       <c r="P10">
-        <v>0.09319701938742614</v>
+        <v>0.07754142475796089</v>
       </c>
       <c r="Q10">
-        <v>1.698729102987</v>
+        <v>4.913519157579999</v>
       </c>
       <c r="R10">
-        <v>6.794916411948</v>
+        <v>19.65407663032</v>
       </c>
       <c r="S10">
-        <v>0.1117271471278818</v>
+        <v>0.1063877634778522</v>
       </c>
       <c r="T10">
-        <v>0.07206307153463401</v>
+        <v>0.071882856397826</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H11">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I11">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J11">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.546787999999999</v>
+        <v>8.745164000000001</v>
       </c>
       <c r="N11">
-        <v>16.640364</v>
+        <v>26.235492</v>
       </c>
       <c r="O11">
-        <v>0.1253571489429874</v>
+        <v>0.2133957479992572</v>
       </c>
       <c r="P11">
-        <v>0.1311986052631834</v>
+        <v>0.2216692531678338</v>
       </c>
       <c r="Q11">
-        <v>1.594263353748</v>
+        <v>9.364251649888001</v>
       </c>
       <c r="R11">
-        <v>9.565580122487999</v>
+        <v>56.185509899328</v>
       </c>
       <c r="S11">
-        <v>0.1048563281641477</v>
+        <v>0.2027552468455296</v>
       </c>
       <c r="T11">
-        <v>0.1014471765134645</v>
+        <v>0.2054929883351263</v>
       </c>
     </row>
   </sheetData>
